--- a/templates/template_kalibrasi.xlsx
+++ b/templates/template_kalibrasi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Proyek Coding\WORK SENSYNC\sensync-maintenance-api\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3568B2-FDA4-4B5D-A18F-C255904127AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D170F85-BC0F-4710-B9C6-E828F15A29E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="630" windowWidth="21600" windowHeight="11835" activeTab="3" xr2:uid="{1CDA8851-BB1B-48D6-A50B-4C4097C866F2}"/>
+    <workbookView xWindow="345" yWindow="975" windowWidth="21600" windowHeight="11835" xr2:uid="{1CDA8851-BB1B-48D6-A50B-4C4097C866F2}"/>
   </bookViews>
   <sheets>
     <sheet name="pH" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
   <si>
     <t>pH</t>
   </si>
@@ -61,42 +61,6 @@
   </si>
   <si>
     <t>NH3N</t>
-  </si>
-  <si>
-    <t>Kalibrasi PT. Besland 06/01/2026</t>
-  </si>
-  <si>
-    <t>Cod 25 mg/l     : 172.10</t>
-  </si>
-  <si>
-    <t>Cod 50 mg/l     : 201.61</t>
-  </si>
-  <si>
-    <t>Cod 75 mg/l     : 205.07</t>
-  </si>
-  <si>
-    <t>Cod 100 mg/l   : 225.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH 4         : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH 6.86   : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pH 9.18   : </t>
-  </si>
-  <si>
-    <t>Amonia 1 mg/l  : 2.50</t>
-  </si>
-  <si>
-    <t>Amonia 2 mg/l  : 3.40</t>
-  </si>
-  <si>
-    <t>Amonia 3 mg/l  : 2.95</t>
-  </si>
-  <si>
-    <t>Tss 100 mg/l  : 199.99</t>
   </si>
   <si>
     <t>{larutan}</t>
@@ -3604,15 +3568,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73A093B-EC68-420B-BBA8-27E57F6CAF1B}">
-  <dimension ref="A2:M18"/>
+  <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3635,12 +3599,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C3" t="e">
         <f>(B3-1.9289)/0.7103</f>
@@ -3662,28 +3626,22 @@
         <f>100%-F3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
-      <c r="M5" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="2" t="e">
         <f>AVERAGE(D3:D5)</f>
         <v>#VALUE!</v>
@@ -3699,54 +3657,6 @@
       <c r="G6" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
-      </c>
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M18" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3757,10 +3667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC2DE67-C085-46E1-B7E1-ABA2B712590C}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L1" sqref="L1:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3768,12 +3678,7 @@
     <col min="7" max="7" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3796,12 +3701,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C3" t="e">
         <f>(B3-159.96)/0.6594</f>
@@ -3823,38 +3728,26 @@
         <f>100%-F3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="2"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="2"/>
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7" s="2" t="e">
         <f>AVERAGE(D3:D6)</f>
         <v>#VALUE!</v>
@@ -3870,41 +3763,6 @@
       <c r="G7" s="2" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L16" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3915,10 +3773,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF405B25-23D2-4EB0-A3EB-8F75B66CDBDB}">
-  <dimension ref="A2:M18"/>
+  <dimension ref="A2:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="M3" sqref="M3:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3927,7 +3785,7 @@
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -3950,12 +3808,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C3" t="e">
         <f>B3*0.5</f>
@@ -3977,67 +3835,11 @@
         <f>100%-F3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="e">
         <f>A3/B3</f>
         <v>#VALUE!</v>
-      </c>
-      <c r="M5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M18" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -4049,7 +3851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E75C8F4-9E98-48CA-9253-6A54240FE2AF}">
   <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3:M18"/>
     </sheetView>
   </sheetViews>
@@ -4084,10 +3886,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C3" t="e">
         <f>(B3-1.2267)/1.18</f>
